--- a/Archive/pRCC results.xlsx
+++ b/Archive/pRCC results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/Ideas/idea4&amp;5 MIL-SI SI-ViT/MIL-SI tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FBE0E7-027E-F048-ADAE-480545B1A83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81224DBE-B22E-974D-8222-221D39E0ADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="1720" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12440" yWindow="1400" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pRCC_runs" sheetId="1" r:id="rId1"/>
@@ -1306,7 +1306,7 @@
   <dimension ref="A1:AU51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="AU49" sqref="AU49:AU51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Archive/pRCC results.xlsx
+++ b/Archive/pRCC results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/Ideas/idea4&amp;5 MIL-SI SI-ViT/MIL-SI tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81224DBE-B22E-974D-8222-221D39E0ADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6490ACD1-99CD-684F-9ED6-51151FF20B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12440" yWindow="1400" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1160" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pRCC_runs" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="103">
   <si>
     <t xml:space="preserve">Train </t>
   </si>
@@ -332,6 +332,18 @@
   </si>
   <si>
     <t>Unet，30% of Dataset is upervised</t>
+  </si>
+  <si>
+    <t>Unet，1% of Dataset is upervised</t>
+  </si>
+  <si>
+    <t>Unet，5% of Dataset is upervised</t>
+  </si>
+  <si>
+    <t>ViT_384_506_PT_lf25_b4_p128_pRCC_MIL_Unet_Ratio05_log</t>
+  </si>
+  <si>
+    <t>ViT_384_506_PT_lf25_b4_p128_pRCC_MIL_Unet_Ratio01_log</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU51"/>
+  <dimension ref="A1:AU53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="AU49" sqref="AU49:AU51"/>
+    <sheetView tabSelected="1" topLeftCell="AI36" zoomScale="92" workbookViewId="0">
+      <selection activeCell="AW53" sqref="AW53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6627,10 +6639,10 @@
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>65</v>
@@ -6687,94 +6699,94 @@
         <v>100</v>
       </c>
       <c r="U49" s="21">
-        <v>97.872340425531902</v>
+        <v>99.290780141843896</v>
       </c>
       <c r="V49" s="21">
-        <v>97.701149425287298</v>
+        <v>98.850574712643606</v>
       </c>
       <c r="W49" s="21">
-        <v>98.837209302325505</v>
+        <v>100</v>
       </c>
       <c r="X49" s="21">
-        <v>98.837209302325505</v>
+        <v>100</v>
       </c>
       <c r="Y49" s="21">
-        <v>96.363636363636303</v>
+        <v>98.181818181818102</v>
       </c>
       <c r="Z49" s="21">
-        <v>98.148148148148096</v>
+        <v>100</v>
       </c>
       <c r="AA49" s="21">
-        <v>98.265895953757195</v>
+        <v>99.421965317919003</v>
       </c>
       <c r="AB49" s="21">
-        <v>98.148148148148096</v>
+        <v>100</v>
       </c>
       <c r="AC49" s="21">
-        <v>96.363636363636303</v>
+        <v>98.181818181818102</v>
       </c>
       <c r="AD49" s="21">
-        <v>96.363636363636303</v>
+        <v>98.181818181818102</v>
       </c>
       <c r="AE49" s="21">
-        <v>98.837209302325505</v>
+        <v>100</v>
       </c>
       <c r="AF49" s="21">
-        <v>97.701149425287298</v>
+        <v>98.850574712643606</v>
       </c>
       <c r="AG49" s="21">
-        <v>97.247706422018297</v>
+        <v>99.082568807339399</v>
       </c>
       <c r="AH49" s="21">
-        <v>95.053003533568898</v>
+        <v>95.759717314487602</v>
       </c>
       <c r="AI49" s="21">
-        <v>93.956043956043899</v>
+        <v>96.022727272727195</v>
       </c>
       <c r="AJ49" s="21">
-        <v>98.275862068965495</v>
+        <v>97.1264367816092</v>
       </c>
       <c r="AK49" s="21">
-        <v>98.275862068965495</v>
+        <v>97.1264367816092</v>
       </c>
       <c r="AL49" s="21">
-        <v>89.908256880733902</v>
+        <v>93.577981651376106</v>
       </c>
       <c r="AM49" s="21">
-        <v>97.029702970296995</v>
+        <v>95.327102803738299</v>
       </c>
       <c r="AN49" s="21">
-        <v>96.067415730337004</v>
+        <v>96.571428571428498</v>
       </c>
       <c r="AO49" s="21">
-        <v>97.029702970296995</v>
+        <v>95.327102803738299</v>
       </c>
       <c r="AP49" s="21">
-        <v>89.908256880733902</v>
+        <v>93.577981651376106</v>
       </c>
       <c r="AQ49" s="21">
-        <v>89.908256880733902</v>
+        <v>93.577981651376106</v>
       </c>
       <c r="AR49" s="21">
-        <v>98.275862068965495</v>
+        <v>97.1264367816092</v>
       </c>
       <c r="AS49" s="21">
-        <v>93.956043956043899</v>
+        <v>96.022727272727195</v>
       </c>
       <c r="AT49" s="21">
-        <v>93.3333333333333</v>
+        <v>94.4444444444444</v>
       </c>
       <c r="AU49" s="21">
-        <f t="shared" ref="AU49:AU51" si="1">AVERAGE(AN49,AT49)</f>
-        <v>94.700374531835152</v>
+        <f t="shared" ref="AU49:AU53" si="1">AVERAGE(AN49,AT49)</f>
+        <v>95.507936507936449</v>
       </c>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C50" s="23" t="s">
         <v>65</v>
@@ -6789,7 +6801,7 @@
         <v>50</v>
       </c>
       <c r="G50">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H50" s="21">
         <v>100</v>
@@ -6831,94 +6843,94 @@
         <v>100</v>
       </c>
       <c r="U50" s="21">
-        <v>99.290780141843896</v>
+        <v>98.581560283687907</v>
       </c>
       <c r="V50" s="21">
+        <v>97.727272727272705</v>
+      </c>
+      <c r="W50" s="21">
+        <v>100</v>
+      </c>
+      <c r="X50" s="21">
+        <v>100</v>
+      </c>
+      <c r="Y50" s="21">
+        <v>96.363636363636303</v>
+      </c>
+      <c r="Z50" s="21">
+        <v>100</v>
+      </c>
+      <c r="AA50" s="21">
         <v>98.850574712643606</v>
       </c>
-      <c r="W50" s="21">
-        <v>100</v>
-      </c>
-      <c r="X50" s="21">
-        <v>100</v>
-      </c>
-      <c r="Y50" s="21">
-        <v>98.181818181818102</v>
-      </c>
-      <c r="Z50" s="21">
-        <v>100</v>
-      </c>
-      <c r="AA50" s="21">
-        <v>99.421965317919003</v>
-      </c>
       <c r="AB50" s="21">
         <v>100</v>
       </c>
       <c r="AC50" s="21">
-        <v>98.181818181818102</v>
+        <v>96.363636363636303</v>
       </c>
       <c r="AD50" s="21">
-        <v>98.181818181818102</v>
+        <v>96.363636363636303</v>
       </c>
       <c r="AE50" s="21">
         <v>100</v>
       </c>
       <c r="AF50" s="21">
-        <v>98.850574712643606</v>
+        <v>97.727272727272705</v>
       </c>
       <c r="AG50" s="21">
-        <v>99.082568807339399</v>
+        <v>98.148148148148096</v>
       </c>
       <c r="AH50" s="21">
-        <v>95.406360424028193</v>
+        <v>95.053003533568898</v>
       </c>
       <c r="AI50" s="21">
-        <v>94.972067039106093</v>
+        <v>95.454545454545396</v>
       </c>
       <c r="AJ50" s="21">
-        <v>97.701149425287298</v>
+        <v>96.551724137931004</v>
       </c>
       <c r="AK50" s="21">
-        <v>97.701149425287298</v>
+        <v>96.551724137931004</v>
       </c>
       <c r="AL50" s="21">
-        <v>91.743119266055004</v>
+        <v>92.660550458715505</v>
       </c>
       <c r="AM50" s="21">
-        <v>96.153846153846104</v>
+        <v>94.392523364485896</v>
       </c>
       <c r="AN50" s="21">
-        <v>96.317280453257794</v>
+        <v>96</v>
       </c>
       <c r="AO50" s="21">
-        <v>96.153846153846104</v>
+        <v>94.392523364485896</v>
       </c>
       <c r="AP50" s="21">
-        <v>91.743119266055004</v>
+        <v>92.660550458715505</v>
       </c>
       <c r="AQ50" s="21">
-        <v>91.743119266055004</v>
+        <v>92.660550458715505</v>
       </c>
       <c r="AR50" s="21">
-        <v>97.701149425287298</v>
+        <v>96.551724137931004</v>
       </c>
       <c r="AS50" s="21">
-        <v>94.972067039106093</v>
+        <v>95.454545454545396</v>
       </c>
       <c r="AT50" s="21">
-        <v>93.896713615023401</v>
+        <v>93.518518518518505</v>
       </c>
       <c r="AU50" s="21">
         <f t="shared" si="1"/>
-        <v>95.106997034140591</v>
+        <v>94.759259259259252</v>
       </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>65</v>
@@ -6933,7 +6945,7 @@
         <v>50</v>
       </c>
       <c r="G51">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H51" s="21">
         <v>100</v>
@@ -6975,28 +6987,28 @@
         <v>100</v>
       </c>
       <c r="U51" s="21">
-        <v>98.581560283687907</v>
+        <v>97.872340425531902</v>
       </c>
       <c r="V51" s="21">
-        <v>97.727272727272705</v>
+        <v>97.701149425287298</v>
       </c>
       <c r="W51" s="21">
-        <v>100</v>
+        <v>98.837209302325505</v>
       </c>
       <c r="X51" s="21">
-        <v>100</v>
+        <v>98.837209302325505</v>
       </c>
       <c r="Y51" s="21">
         <v>96.363636363636303</v>
       </c>
       <c r="Z51" s="21">
-        <v>100</v>
+        <v>98.148148148148096</v>
       </c>
       <c r="AA51" s="21">
-        <v>98.850574712643606</v>
+        <v>98.265895953757195</v>
       </c>
       <c r="AB51" s="21">
-        <v>100</v>
+        <v>98.148148148148096</v>
       </c>
       <c r="AC51" s="21">
         <v>96.363636363636303</v>
@@ -7005,54 +7017,342 @@
         <v>96.363636363636303</v>
       </c>
       <c r="AE51" s="21">
-        <v>100</v>
+        <v>98.837209302325505</v>
       </c>
       <c r="AF51" s="21">
-        <v>97.727272727272705</v>
+        <v>97.701149425287298</v>
       </c>
       <c r="AG51" s="21">
-        <v>98.148148148148096</v>
+        <v>97.247706422018297</v>
       </c>
       <c r="AH51" s="21">
         <v>95.053003533568898</v>
       </c>
       <c r="AI51" s="21">
+        <v>93.956043956043899</v>
+      </c>
+      <c r="AJ51" s="21">
+        <v>98.275862068965495</v>
+      </c>
+      <c r="AK51" s="21">
+        <v>98.275862068965495</v>
+      </c>
+      <c r="AL51" s="21">
+        <v>89.908256880733902</v>
+      </c>
+      <c r="AM51" s="21">
+        <v>97.029702970296995</v>
+      </c>
+      <c r="AN51" s="21">
+        <v>96.067415730337004</v>
+      </c>
+      <c r="AO51" s="21">
+        <v>97.029702970296995</v>
+      </c>
+      <c r="AP51" s="21">
+        <v>89.908256880733902</v>
+      </c>
+      <c r="AQ51" s="21">
+        <v>89.908256880733902</v>
+      </c>
+      <c r="AR51" s="21">
+        <v>98.275862068965495</v>
+      </c>
+      <c r="AS51" s="21">
+        <v>93.956043956043899</v>
+      </c>
+      <c r="AT51" s="21">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="AU51" s="21">
+        <f t="shared" si="1"/>
+        <v>94.700374531835152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="22">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>45</v>
+      </c>
+      <c r="H52" s="21">
+        <v>100</v>
+      </c>
+      <c r="I52" s="21">
+        <v>100</v>
+      </c>
+      <c r="J52" s="21">
+        <v>100</v>
+      </c>
+      <c r="K52" s="21">
+        <v>100</v>
+      </c>
+      <c r="L52" s="21">
+        <v>100</v>
+      </c>
+      <c r="M52" s="21">
+        <v>100</v>
+      </c>
+      <c r="N52" s="21">
+        <v>100</v>
+      </c>
+      <c r="O52" s="21">
+        <v>100</v>
+      </c>
+      <c r="P52" s="21">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="21">
+        <v>100</v>
+      </c>
+      <c r="R52" s="21">
+        <v>100</v>
+      </c>
+      <c r="S52" s="21">
+        <v>100</v>
+      </c>
+      <c r="T52" s="21">
+        <v>100</v>
+      </c>
+      <c r="U52" s="21">
+        <v>99.290780141843896</v>
+      </c>
+      <c r="V52" s="21">
+        <v>98.850574712643606</v>
+      </c>
+      <c r="W52" s="21">
+        <v>100</v>
+      </c>
+      <c r="X52" s="21">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="21">
+        <v>98.181818181818102</v>
+      </c>
+      <c r="Z52" s="21">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="21">
+        <v>99.421965317919003</v>
+      </c>
+      <c r="AB52" s="21">
+        <v>100</v>
+      </c>
+      <c r="AC52" s="21">
+        <v>98.181818181818102</v>
+      </c>
+      <c r="AD52" s="21">
+        <v>98.181818181818102</v>
+      </c>
+      <c r="AE52" s="21">
+        <v>100</v>
+      </c>
+      <c r="AF52" s="21">
+        <v>98.850574712643606</v>
+      </c>
+      <c r="AG52" s="21">
+        <v>99.082568807339399</v>
+      </c>
+      <c r="AH52" s="21">
+        <v>95.406360424028193</v>
+      </c>
+      <c r="AI52" s="21">
+        <v>94.972067039106093</v>
+      </c>
+      <c r="AJ52" s="21">
+        <v>97.701149425287298</v>
+      </c>
+      <c r="AK52" s="21">
+        <v>97.701149425287298</v>
+      </c>
+      <c r="AL52" s="21">
+        <v>91.743119266055004</v>
+      </c>
+      <c r="AM52" s="21">
+        <v>96.153846153846104</v>
+      </c>
+      <c r="AN52" s="21">
+        <v>96.317280453257794</v>
+      </c>
+      <c r="AO52" s="21">
+        <v>96.153846153846104</v>
+      </c>
+      <c r="AP52" s="21">
+        <v>91.743119266055004</v>
+      </c>
+      <c r="AQ52" s="21">
+        <v>91.743119266055004</v>
+      </c>
+      <c r="AR52" s="21">
+        <v>97.701149425287298</v>
+      </c>
+      <c r="AS52" s="21">
+        <v>94.972067039106093</v>
+      </c>
+      <c r="AT52" s="21">
+        <v>93.896713615023401</v>
+      </c>
+      <c r="AU52" s="21">
+        <f t="shared" si="1"/>
+        <v>95.106997034140591</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="22">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>40</v>
+      </c>
+      <c r="H53" s="21">
+        <v>100</v>
+      </c>
+      <c r="I53" s="21">
+        <v>100</v>
+      </c>
+      <c r="J53" s="21">
+        <v>100</v>
+      </c>
+      <c r="K53" s="21">
+        <v>100</v>
+      </c>
+      <c r="L53" s="21">
+        <v>100</v>
+      </c>
+      <c r="M53" s="21">
+        <v>100</v>
+      </c>
+      <c r="N53" s="21">
+        <v>100</v>
+      </c>
+      <c r="O53" s="21">
+        <v>100</v>
+      </c>
+      <c r="P53" s="21">
+        <v>100</v>
+      </c>
+      <c r="Q53" s="21">
+        <v>100</v>
+      </c>
+      <c r="R53" s="21">
+        <v>100</v>
+      </c>
+      <c r="S53" s="21">
+        <v>100</v>
+      </c>
+      <c r="T53" s="21">
+        <v>100</v>
+      </c>
+      <c r="U53" s="21">
+        <v>98.581560283687907</v>
+      </c>
+      <c r="V53" s="21">
+        <v>97.727272727272705</v>
+      </c>
+      <c r="W53" s="21">
+        <v>100</v>
+      </c>
+      <c r="X53" s="21">
+        <v>100</v>
+      </c>
+      <c r="Y53" s="21">
+        <v>96.363636363636303</v>
+      </c>
+      <c r="Z53" s="21">
+        <v>100</v>
+      </c>
+      <c r="AA53" s="21">
+        <v>98.850574712643606</v>
+      </c>
+      <c r="AB53" s="21">
+        <v>100</v>
+      </c>
+      <c r="AC53" s="21">
+        <v>96.363636363636303</v>
+      </c>
+      <c r="AD53" s="21">
+        <v>96.363636363636303</v>
+      </c>
+      <c r="AE53" s="21">
+        <v>100</v>
+      </c>
+      <c r="AF53" s="21">
+        <v>97.727272727272705</v>
+      </c>
+      <c r="AG53" s="21">
+        <v>98.148148148148096</v>
+      </c>
+      <c r="AH53" s="21">
+        <v>95.053003533568898</v>
+      </c>
+      <c r="AI53" s="21">
         <v>94.943820224719104</v>
       </c>
-      <c r="AJ51" s="21">
+      <c r="AJ53" s="21">
         <v>97.1264367816092</v>
       </c>
-      <c r="AK51" s="21">
+      <c r="AK53" s="21">
         <v>97.1264367816092</v>
       </c>
-      <c r="AL51" s="21">
+      <c r="AL53" s="21">
         <v>91.743119266055004</v>
       </c>
-      <c r="AM51" s="21">
+      <c r="AM53" s="21">
         <v>95.238095238095198</v>
       </c>
-      <c r="AN51" s="21">
+      <c r="AN53" s="21">
         <v>96.022727272727195</v>
       </c>
-      <c r="AO51" s="21">
+      <c r="AO53" s="21">
         <v>95.238095238095198</v>
       </c>
-      <c r="AP51" s="21">
+      <c r="AP53" s="21">
         <v>91.743119266055004</v>
       </c>
-      <c r="AQ51" s="21">
+      <c r="AQ53" s="21">
         <v>91.743119266055004</v>
       </c>
-      <c r="AR51" s="21">
+      <c r="AR53" s="21">
         <v>97.1264367816092</v>
       </c>
-      <c r="AS51" s="21">
+      <c r="AS53" s="21">
         <v>94.943820224719104</v>
       </c>
-      <c r="AT51" s="21">
+      <c r="AT53" s="21">
         <v>93.457943925233593</v>
       </c>
-      <c r="AU51" s="21">
+      <c r="AU53" s="21">
         <f t="shared" si="1"/>
         <v>94.740335598980394</v>
       </c>

--- a/Archive/pRCC results.xlsx
+++ b/Archive/pRCC results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/Ideas/idea4&amp;5 MIL-SI SI-ViT/MIL-SI tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6490ACD1-99CD-684F-9ED6-51151FF20B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AE7F6E-62E0-9C40-A0CD-59E08CE3088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1160" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11020" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pRCC_runs" sheetId="1" r:id="rId1"/>
@@ -1317,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI36" zoomScale="92" workbookViewId="0">
-      <selection activeCell="AW53" sqref="AW53"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="AT34" sqref="AT34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Archive/pRCC results.xlsx
+++ b/Archive/pRCC results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/Ideas/idea4&amp;5 MIL-SI SI-ViT/MIL-SI tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AE7F6E-62E0-9C40-A0CD-59E08CE3088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A6DE35-A111-7142-A127-D8583BA4692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pRCC_runs" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="104">
   <si>
     <t xml:space="preserve">Train </t>
   </si>
@@ -172,12 +172,6 @@
     <t>vgg19_384_506_PT_lf25_b4_pRCC_CLS_log</t>
   </si>
   <si>
-    <t>mobilenetv3_384_506_PT_lf25_b4_pRCC_CLS_log</t>
-  </si>
-  <si>
-    <t>efficientnet_b3_384_506_PT_lf25_b4_pRCC_CLS_log</t>
-  </si>
-  <si>
     <t>inceptionv3_384_506_PT_lf25_b4_pRCC_CLS_log</t>
   </si>
   <si>
@@ -344,6 +338,15 @@
   </si>
   <si>
     <t>ViT_384_506_PT_lf25_b4_p128_pRCC_MIL_Unet_Ratio01_log</t>
+  </si>
+  <si>
+    <t>mobilenetv3_384_406_PT_lf25_b4_pRCC_CLS_log</t>
+  </si>
+  <si>
+    <t>406_lf25</t>
+  </si>
+  <si>
+    <t>efficientnet_b3_384_406_PT_lf25_b4_pRCC_CLS_log</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -958,6 +961,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1317,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="AT34" sqref="AT34"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1597,7 +1603,7 @@
         <v>22</v>
       </c>
       <c r="AU2" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -1626,7 +1632,7 @@
         <v>384</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -1770,7 +1776,7 @@
         <v>384</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -1896,301 +1902,301 @@
         <v>91.428571428571402</v>
       </c>
       <c r="AU5" s="10">
-        <f t="shared" ref="AU5:AU41" si="0">AVERAGE(AT5,AN5)</f>
+        <f t="shared" ref="AU5:AU10" si="0">AVERAGE(AT5,AN5)</f>
         <v>93.186195826645246</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="25">
         <v>384</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6">
+        <v>102</v>
+      </c>
+      <c r="F6" s="20">
         <v>50</v>
       </c>
       <c r="G6">
-        <v>31</v>
-      </c>
-      <c r="H6" s="10">
-        <v>81.754032258064498</v>
-      </c>
-      <c r="I6" s="10">
-        <v>84.828711256117401</v>
-      </c>
-      <c r="J6" s="10">
-        <v>85.5263157894736</v>
-      </c>
-      <c r="K6" s="10">
-        <v>85.5263157894736</v>
-      </c>
-      <c r="L6" s="10">
-        <v>75.78125</v>
-      </c>
-      <c r="M6" s="10">
-        <v>76.781002638522395</v>
-      </c>
-      <c r="N6" s="10">
-        <v>85.176085176085095</v>
-      </c>
-      <c r="O6" s="10">
-        <v>76.781002638522395</v>
-      </c>
-      <c r="P6" s="10">
-        <v>75.78125</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>75.78125</v>
-      </c>
-      <c r="R6" s="10">
-        <v>85.5263157894736</v>
-      </c>
-      <c r="S6" s="10">
-        <v>84.828711256117401</v>
-      </c>
-      <c r="T6" s="10">
-        <v>76.277850589777202</v>
-      </c>
-      <c r="U6" s="10">
-        <v>87.857142857142804</v>
-      </c>
-      <c r="V6" s="10">
-        <v>91.566265060240895</v>
-      </c>
-      <c r="W6" s="10">
-        <v>88.3720930232558</v>
-      </c>
-      <c r="X6" s="10">
-        <v>88.3720930232558</v>
-      </c>
-      <c r="Y6" s="10">
+        <v>44</v>
+      </c>
+      <c r="H6" s="21">
+        <v>97.7822580645161</v>
+      </c>
+      <c r="I6" s="21">
+        <v>98.029556650246306</v>
+      </c>
+      <c r="J6" s="21">
+        <v>98.352553542009801</v>
+      </c>
+      <c r="K6" s="21">
+        <v>98.352553542009801</v>
+      </c>
+      <c r="L6" s="21">
+        <v>96.883116883116799</v>
+      </c>
+      <c r="M6" s="21">
+        <v>97.389033942558697</v>
+      </c>
+      <c r="N6" s="21">
+        <v>98.190789473684205</v>
+      </c>
+      <c r="O6" s="21">
+        <v>97.389033942558697</v>
+      </c>
+      <c r="P6" s="21">
+        <v>96.883116883116799</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>96.883116883116799</v>
+      </c>
+      <c r="R6" s="21">
+        <v>98.352553542009801</v>
+      </c>
+      <c r="S6" s="21">
+        <v>98.029556650246306</v>
+      </c>
+      <c r="T6" s="21">
+        <v>97.1354166666666</v>
+      </c>
+      <c r="U6" s="21">
+        <v>92.142857142857096</v>
+      </c>
+      <c r="V6" s="21">
+        <v>92.134831460674107</v>
+      </c>
+      <c r="W6" s="21">
+        <v>95.348837209302303</v>
+      </c>
+      <c r="X6" s="21">
+        <v>95.348837209302303</v>
+      </c>
+      <c r="Y6" s="21">
         <v>87.037037037036995</v>
       </c>
-      <c r="Z6" s="10">
-        <v>82.456140350877106</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>89.940828402366805</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>82.456140350877106</v>
-      </c>
-      <c r="AC6" s="10">
+      <c r="Z6" s="21">
+        <v>92.156862745097996</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>93.714285714285694</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>92.156862745097996</v>
+      </c>
+      <c r="AC6" s="21">
         <v>87.037037037036995</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AD6" s="21">
         <v>87.037037037036995</v>
       </c>
-      <c r="AE6" s="10">
-        <v>88.3720930232558</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>91.566265060240895</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>84.684684684684598</v>
-      </c>
-      <c r="AH6" s="10">
-        <v>80.918727915194296</v>
-      </c>
-      <c r="AI6" s="10">
-        <v>83.3333333333333</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>86.2068965517241</v>
-      </c>
-      <c r="AK6" s="10">
-        <v>86.2068965517241</v>
-      </c>
-      <c r="AL6" s="10">
-        <v>72.477064220183493</v>
-      </c>
-      <c r="AM6" s="10">
-        <v>76.699029126213503</v>
-      </c>
-      <c r="AN6" s="10">
-        <v>84.745762711864401</v>
-      </c>
-      <c r="AO6" s="10">
-        <v>76.699029126213503</v>
-      </c>
-      <c r="AP6" s="10">
-        <v>72.477064220183493</v>
-      </c>
-      <c r="AQ6" s="10">
-        <v>72.477064220183493</v>
-      </c>
-      <c r="AR6" s="10">
-        <v>86.2068965517241</v>
-      </c>
-      <c r="AS6" s="10">
-        <v>83.3333333333333</v>
-      </c>
-      <c r="AT6" s="10">
-        <v>74.528301886792406</v>
-      </c>
-      <c r="AU6" s="10">
-        <f t="shared" si="0"/>
-        <v>79.637032299328411</v>
+      <c r="AE6" s="21">
+        <v>95.348837209302303</v>
+      </c>
+      <c r="AF6" s="21">
+        <v>92.134831460674107</v>
+      </c>
+      <c r="AG6" s="21">
+        <v>89.523809523809504</v>
+      </c>
+      <c r="AH6" s="21">
+        <v>88.339222614840907</v>
+      </c>
+      <c r="AI6" s="21">
+        <v>88.108108108108098</v>
+      </c>
+      <c r="AJ6" s="21">
+        <v>93.678160919540204</v>
+      </c>
+      <c r="AK6" s="21">
+        <v>93.678160919540204</v>
+      </c>
+      <c r="AL6" s="21">
+        <v>79.816513761467803</v>
+      </c>
+      <c r="AM6" s="21">
+        <v>88.775510204081598</v>
+      </c>
+      <c r="AN6" s="21">
+        <v>90.807799442896894</v>
+      </c>
+      <c r="AO6" s="21">
+        <v>88.775510204081598</v>
+      </c>
+      <c r="AP6" s="21">
+        <v>79.816513761467803</v>
+      </c>
+      <c r="AQ6" s="21">
+        <v>79.816513761467803</v>
+      </c>
+      <c r="AR6" s="21">
+        <v>93.678160919540204</v>
+      </c>
+      <c r="AS6" s="21">
+        <v>88.108108108108098</v>
+      </c>
+      <c r="AT6" s="21">
+        <v>84.057971014492693</v>
+      </c>
+      <c r="AU6" s="21">
+        <f t="shared" ref="AU6:AU7" si="1">AVERAGE(AN6,AT6)</f>
+        <v>87.432885228694801</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="25">
         <v>384</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7">
+        <v>102</v>
+      </c>
+      <c r="F7" s="20">
         <v>50</v>
       </c>
       <c r="G7">
-        <v>38</v>
-      </c>
-      <c r="H7" s="10">
-        <v>85.483870967741893</v>
-      </c>
-      <c r="I7" s="10">
-        <v>87.43961352657</v>
-      </c>
-      <c r="J7" s="10">
-        <v>89.162561576354605</v>
-      </c>
-      <c r="K7" s="10">
-        <v>89.162561576354605</v>
-      </c>
-      <c r="L7" s="10">
-        <v>79.634464751958205</v>
-      </c>
-      <c r="M7" s="10">
-        <v>82.210242587601002</v>
-      </c>
-      <c r="N7" s="10">
-        <v>88.292682926829201</v>
-      </c>
-      <c r="O7" s="10">
-        <v>82.210242587601002</v>
-      </c>
-      <c r="P7" s="10">
-        <v>79.634464751958205</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>79.634464751958205</v>
-      </c>
-      <c r="R7" s="10">
-        <v>89.162561576354605</v>
-      </c>
-      <c r="S7" s="10">
-        <v>87.43961352657</v>
-      </c>
-      <c r="T7" s="10">
-        <v>80.901856763925693</v>
-      </c>
-      <c r="U7" s="10">
-        <v>86.428571428571402</v>
-      </c>
-      <c r="V7" s="10">
-        <v>89.411764705882305</v>
-      </c>
-      <c r="W7" s="10">
-        <v>88.3720930232558</v>
-      </c>
-      <c r="X7" s="10">
-        <v>88.3720930232558</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>83.3333333333333</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>81.818181818181799</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>88.8888888888889</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>81.818181818181799</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>83.3333333333333</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>83.3333333333333</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>88.3720930232558</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>89.411764705882305</v>
-      </c>
-      <c r="AG7" s="10">
-        <v>82.568807339449506</v>
-      </c>
-      <c r="AH7" s="10">
-        <v>79.151943462897506</v>
-      </c>
-      <c r="AI7" s="10">
-        <v>83.625730994151994</v>
-      </c>
-      <c r="AJ7" s="10">
-        <v>82.183908045977006</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>82.183908045977006</v>
-      </c>
-      <c r="AL7" s="10">
-        <v>74.311926605504496</v>
-      </c>
-      <c r="AM7" s="10">
-        <v>72.321428571428498</v>
-      </c>
-      <c r="AN7" s="10">
-        <v>82.898550724637602</v>
-      </c>
-      <c r="AO7" s="10">
-        <v>72.321428571428498</v>
-      </c>
-      <c r="AP7" s="10">
-        <v>74.311926605504496</v>
-      </c>
-      <c r="AQ7" s="10">
-        <v>74.311926605504496</v>
-      </c>
-      <c r="AR7" s="10">
-        <v>82.183908045977006</v>
-      </c>
-      <c r="AS7" s="10">
-        <v>83.625730994151994</v>
-      </c>
-      <c r="AT7" s="10">
-        <v>73.303167420814404</v>
-      </c>
-      <c r="AU7" s="10">
-        <f t="shared" si="0"/>
-        <v>78.100859072725996</v>
+        <v>44</v>
+      </c>
+      <c r="H7" s="21">
+        <v>98.487903225806406</v>
+      </c>
+      <c r="I7" s="21">
+        <v>98.368678629689995</v>
+      </c>
+      <c r="J7" s="21">
+        <v>99.177631578947299</v>
+      </c>
+      <c r="K7" s="21">
+        <v>99.177631578947299</v>
+      </c>
+      <c r="L7" s="21">
+        <v>97.3958333333333</v>
+      </c>
+      <c r="M7" s="21">
+        <v>98.680738786279605</v>
+      </c>
+      <c r="N7" s="21">
+        <v>98.771498771498699</v>
+      </c>
+      <c r="O7" s="21">
+        <v>98.680738786279605</v>
+      </c>
+      <c r="P7" s="21">
+        <v>97.3958333333333</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>97.3958333333333</v>
+      </c>
+      <c r="R7" s="21">
+        <v>99.177631578947299</v>
+      </c>
+      <c r="S7" s="21">
+        <v>98.368678629689995</v>
+      </c>
+      <c r="T7" s="21">
+        <v>98.034076015727294</v>
+      </c>
+      <c r="U7" s="21">
+        <v>92.857142857142804</v>
+      </c>
+      <c r="V7" s="21">
+        <v>93.181818181818102</v>
+      </c>
+      <c r="W7" s="21">
+        <v>95.348837209302303</v>
+      </c>
+      <c r="X7" s="21">
+        <v>95.348837209302303</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>88.8888888888888</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="AA7" s="21">
+        <v>94.252873563218401</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>88.8888888888888</v>
+      </c>
+      <c r="AD7" s="21">
+        <v>88.8888888888888</v>
+      </c>
+      <c r="AE7" s="21">
+        <v>95.348837209302303</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>93.181818181818102</v>
+      </c>
+      <c r="AG7" s="21">
+        <v>90.566037735848994</v>
+      </c>
+      <c r="AH7" s="21">
+        <v>90.106007067137796</v>
+      </c>
+      <c r="AI7" s="21">
+        <v>91.477272727272705</v>
+      </c>
+      <c r="AJ7" s="21">
+        <v>92.528735632183896</v>
+      </c>
+      <c r="AK7" s="21">
+        <v>92.528735632183896</v>
+      </c>
+      <c r="AL7" s="21">
+        <v>86.238532110091697</v>
+      </c>
+      <c r="AM7" s="21">
+        <v>87.850467289719603</v>
+      </c>
+      <c r="AN7" s="21">
+        <v>92</v>
+      </c>
+      <c r="AO7" s="21">
+        <v>87.850467289719603</v>
+      </c>
+      <c r="AP7" s="21">
+        <v>86.238532110091697</v>
+      </c>
+      <c r="AQ7" s="21">
+        <v>86.238532110091697</v>
+      </c>
+      <c r="AR7" s="21">
+        <v>92.528735632183896</v>
+      </c>
+      <c r="AS7" s="21">
+        <v>91.477272727272705</v>
+      </c>
+      <c r="AT7" s="21">
+        <v>87.037037037036995</v>
+      </c>
+      <c r="AU7" s="21">
+        <f t="shared" si="1"/>
+        <v>89.518518518518505</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -2202,7 +2208,7 @@
         <v>384</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -2334,7 +2340,7 @@
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -2346,7 +2352,7 @@
         <v>384</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -2490,7 +2496,7 @@
         <v>384</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -2666,7 +2672,7 @@
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2678,7 +2684,7 @@
         <v>384</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -2804,13 +2810,13 @@
         <v>93.087557603686605</v>
       </c>
       <c r="AU12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AU5:AU41" si="2">AVERAGE(AT12,AN12)</f>
         <v>94.394781667172794</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -2822,7 +2828,7 @@
         <v>384</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -2948,7 +2954,7 @@
         <v>89.952153110047803</v>
       </c>
       <c r="AU13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.034900084435648</v>
       </c>
     </row>
@@ -2999,7 +3005,7 @@
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -3011,7 +3017,7 @@
         <v>384</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -3137,13 +3143,13 @@
         <v>90.196078431372499</v>
       </c>
       <c r="AU15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.335608276459709</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -3155,7 +3161,7 @@
         <v>384</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -3281,13 +3287,13 @@
         <v>93.396226415094304</v>
       </c>
       <c r="AU16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>94.72071207760365</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -3299,7 +3305,7 @@
         <v>384</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17">
         <v>50</v>
@@ -3425,7 +3431,7 @@
         <v>92.452830188679201</v>
       </c>
       <c r="AU17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93.966528088689842</v>
       </c>
     </row>
@@ -3567,7 +3573,7 @@
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -3579,7 +3585,7 @@
         <v>384</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F21">
         <v>50</v>
@@ -3705,13 +3711,13 @@
         <v>90.821256038647306</v>
       </c>
       <c r="AU21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.764388465006107</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -3723,7 +3729,7 @@
         <v>384</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22">
         <v>50</v>
@@ -3849,13 +3855,13 @@
         <v>92.376681614349707</v>
       </c>
       <c r="AU22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93.710206696387644</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -3867,7 +3873,7 @@
         <v>384</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F23">
         <v>50</v>
@@ -3993,25 +3999,25 @@
         <v>91.162790697674396</v>
       </c>
       <c r="AU23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.874842642284449</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="9">
         <v>384</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F24">
         <v>50</v>
@@ -4137,25 +4143,25 @@
         <v>94.930875576036797</v>
       </c>
       <c r="AU24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95.889506555926701</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="9">
         <v>384</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F25">
         <v>50</v>
@@ -4281,25 +4287,25 @@
         <v>92.093023255813904</v>
       </c>
       <c r="AU25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93.624859206254499</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="9">
         <v>384</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26">
         <v>50</v>
@@ -4425,7 +4431,7 @@
         <v>92.592592592592595</v>
       </c>
       <c r="AU26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>94.010582010581999</v>
       </c>
     </row>
@@ -4522,19 +4528,19 @@
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="E29" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <v>50</v>
@@ -4660,25 +4666,25 @@
         <v>90.995260663507096</v>
       </c>
       <c r="AU29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.821573993725352</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="E30" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F30">
         <v>50</v>
@@ -4804,25 +4810,25 @@
         <v>92.307692307692307</v>
       </c>
       <c r="AU30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93.919209282337761</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F31">
         <v>50</v>
@@ -4948,25 +4954,25 @@
         <v>94.392523364485896</v>
       </c>
       <c r="AU31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95.491716227697452</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F32">
         <v>50</v>
@@ -5092,25 +5098,25 @@
         <v>93.896713615023401</v>
       </c>
       <c r="AU32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95.106997034140591</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33">
         <v>50</v>
@@ -5236,25 +5242,25 @@
         <v>93.518518518518505</v>
       </c>
       <c r="AU33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>94.759259259259252</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F34">
         <v>50</v>
@@ -5380,7 +5386,7 @@
         <v>94.285714285714207</v>
       </c>
       <c r="AU34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95.457463884430098</v>
       </c>
     </row>
@@ -5474,10 +5480,10 @@
     </row>
     <row r="37" spans="1:47" ht="33" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -5524,7 +5530,7 @@
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
@@ -5536,7 +5542,7 @@
         <v>384</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F38">
         <v>50</v>
@@ -5662,25 +5668,25 @@
         <v>89.952153110047803</v>
       </c>
       <c r="AU38" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.034900084435648</v>
       </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
       <c r="C39" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F39">
         <v>50</v>
@@ -5806,25 +5812,25 @@
         <v>91.707317073170699</v>
       </c>
       <c r="AU39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93.49908789946619</v>
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F40">
         <v>50</v>
@@ -5950,25 +5956,25 @@
         <v>90.990990990990994</v>
       </c>
       <c r="AU40" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.588518751309437</v>
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F41">
         <v>50</v>
@@ -6094,7 +6100,7 @@
         <v>94.285714285714207</v>
       </c>
       <c r="AU41" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95.457463884430098</v>
       </c>
     </row>
@@ -6105,10 +6111,10 @@
     </row>
     <row r="43" spans="1:47" ht="33" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -6155,19 +6161,19 @@
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F44">
         <v>50</v>
@@ -6299,19 +6305,19 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F45">
         <v>50</v>
@@ -6443,19 +6449,19 @@
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F46">
         <v>50</v>
@@ -6591,7 +6597,7 @@
     </row>
     <row r="48" spans="1:47" ht="33" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -6639,19 +6645,19 @@
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F49" s="22">
         <v>50</v>
@@ -6777,25 +6783,25 @@
         <v>94.4444444444444</v>
       </c>
       <c r="AU49" s="21">
-        <f t="shared" ref="AU49:AU53" si="1">AVERAGE(AN49,AT49)</f>
+        <f t="shared" ref="AU49:AU53" si="3">AVERAGE(AN49,AT49)</f>
         <v>95.507936507936449</v>
       </c>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F50" s="22">
         <v>50</v>
@@ -6921,25 +6927,25 @@
         <v>93.518518518518505</v>
       </c>
       <c r="AU50" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94.759259259259252</v>
       </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="F51" s="22">
         <v>50</v>
@@ -7065,25 +7071,25 @@
         <v>93.3333333333333</v>
       </c>
       <c r="AU51" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94.700374531835152</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F52" s="22">
         <v>50</v>
@@ -7209,25 +7215,25 @@
         <v>93.896713615023401</v>
       </c>
       <c r="AU52" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95.106997034140591</v>
       </c>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F53" s="22">
         <v>50</v>
@@ -7353,7 +7359,7 @@
         <v>93.457943925233593</v>
       </c>
       <c r="AU53" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94.740335598980394</v>
       </c>
     </row>
